--- a/inclusions.xlsx
+++ b/inclusions.xlsx
@@ -12,390 +12,432 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+  <si>
+    <t xml:space="preserve">iso</t>
+  </si>
   <si>
     <t xml:space="preserve">country</t>
   </si>
   <si>
-    <t xml:space="preserve">iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include_past10</t>
+    <t xml:space="preserve">strict_include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less_strict_include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZA</t>
   </si>
   <si>
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">DZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHL</t>
+    <t xml:space="preserve">EGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRV</t>
   </si>
   <si>
     <t xml:space="preserve">Croatia</t>
   </si>
   <si>
-    <t xml:space="preserve">HRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUY</t>
+    <t xml:space="preserve">HUN</t>
   </si>
   <si>
     <t xml:space="preserve">Hungary</t>
   </si>
   <si>
-    <t xml:space="preserve">HUN</t>
+    <t xml:space="preserve">IDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISL</t>
   </si>
   <si>
     <t xml:space="preserve">Iceland</t>
   </si>
   <si>
-    <t xml:space="preserve">ISL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRL</t>
+    <t xml:space="preserve">ITA</t>
   </si>
   <si>
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
-    <t xml:space="preserve">ITA</t>
+    <t xml:space="preserve">JPN</t>
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">JPN</t>
+    <t xml:space="preserve">KAZ</t>
   </si>
   <si>
     <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
-    <t xml:space="preserve">KAZ</t>
+    <t xml:space="preserve">KEN</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
-    <t xml:space="preserve">KEN</t>
+    <t xml:space="preserve">LIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVA</t>
   </si>
   <si>
     <t xml:space="preserve">Latvia</t>
   </si>
   <si>
-    <t xml:space="preserve">LVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUX</t>
+    <t xml:space="preserve">MCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLT</t>
   </si>
   <si>
     <t xml:space="preserve">Malta</t>
   </si>
   <si>
-    <t xml:space="preserve">MLT</t>
+    <t xml:space="preserve">MUS</t>
   </si>
   <si>
     <t xml:space="preserve">Mauritius</t>
   </si>
   <si>
-    <t xml:space="preserve">MUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCO</t>
+    <t xml:space="preserve">NAM</t>
   </si>
   <si>
     <t xml:space="preserve">Namibia</t>
   </si>
   <si>
-    <t xml:space="preserve">NAM</t>
+    <t xml:space="preserve">NGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLD</t>
   </si>
   <si>
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
-    <t xml:space="preserve">NLD</t>
+    <t xml:space="preserve">NOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZL</t>
   </si>
   <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
-    <t xml:space="preserve">NZL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOR</t>
+    <t xml:space="preserve">POL</t>
   </si>
   <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">POL</t>
+    <t xml:space="preserve">PRT</t>
   </si>
   <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
-    <t xml:space="preserve">PRT</t>
+    <t xml:space="preserve">ROU</t>
   </si>
   <si>
     <t xml:space="preserve">Romania</t>
   </si>
   <si>
-    <t xml:space="preserve">ROU</t>
+    <t xml:space="preserve">RUS</t>
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
   </si>
   <si>
-    <t xml:space="preserve">RUS</t>
+    <t xml:space="preserve">SGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRB</t>
   </si>
   <si>
     <t xml:space="preserve">Serbia</t>
   </si>
   <si>
-    <t xml:space="preserve">SRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGP</t>
+    <t xml:space="preserve">SVK</t>
   </si>
   <si>
     <t xml:space="preserve">Slovakia</t>
   </si>
   <si>
-    <t xml:space="preserve">SVK</t>
+    <t xml:space="preserve">SVN</t>
   </si>
   <si>
     <t xml:space="preserve">Slovenia</t>
   </si>
   <si>
-    <t xml:space="preserve">SVN</t>
+    <t xml:space="preserve">SWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAF</t>
   </si>
   <si>
     <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UZB</t>
   </si>
 </sst>
 </file>
@@ -752,21 +794,21 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -777,10 +819,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -791,10 +833,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -805,10 +847,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -819,10 +861,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -847,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -861,10 +903,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -931,10 +973,10 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -945,10 +987,10 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -959,10 +1001,10 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -987,10 +1029,10 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1001,10 +1043,10 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1015,10 +1057,10 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1043,10 +1085,10 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1057,10 +1099,10 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1085,10 +1127,10 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1099,10 +1141,10 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1127,10 +1169,10 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1141,10 +1183,10 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1183,10 +1225,10 @@
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1197,10 +1239,10 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1211,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1225,10 +1267,10 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1267,10 +1309,10 @@
         <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1295,10 +1337,10 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1365,10 +1407,10 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1421,10 +1463,10 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1435,10 +1477,10 @@
         <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1463,10 +1505,10 @@
         <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1477,10 +1519,10 @@
         <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -1491,10 +1533,10 @@
         <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1505,10 +1547,10 @@
         <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1547,10 +1589,10 @@
         <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1561,10 +1603,10 @@
         <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -1575,10 +1617,10 @@
         <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -1593,6 +1635,104 @@
       </c>
       <c r="D62" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/inclusions.xlsx
+++ b/inclusions.xlsx
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1200,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1522,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1550,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
